--- a/Multi-taxa_data/PLITs/3-Relative_cover_functional_group/func_mean_depth_input.xlsx
+++ b/Multi-taxa_data/PLITs/3-Relative_cover_functional_group/func_mean_depth_input.xlsx
@@ -7233,6 +7233,15 @@
           <t>turf</t>
         </is>
       </c>
+      <c r="E226">
+        <v>1025</v>
+      </c>
+      <c r="F226">
+        <v>73.3</v>
+      </c>
+      <c r="G226">
+        <v>277</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -7259,7 +7268,7 @@
         <v>364</v>
       </c>
       <c r="F227">
-        <v>56.9</v>
+        <v>26.7</v>
       </c>
       <c r="G227">
         <v>200</v>
